--- a/output/ursus/2022/sheets/year_2022.xlsx
+++ b/output/ursus/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>54.81612903225807</v>
+        <v>54.94316209226278</v>
       </c>
       <c r="C2" t="n">
-        <v>49.57419354838709</v>
+        <v>50.13651713524098</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>55.19642857142857</v>
+        <v>55.28665620208258</v>
       </c>
       <c r="C3" t="n">
-        <v>46.77142857142858</v>
+        <v>49.06920682546801</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>53.81935483870967</v>
+        <v>55.67437731679902</v>
       </c>
       <c r="C4" t="n">
-        <v>46.91935483870969</v>
+        <v>48.81711203090081</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>56.79999999999999</v>
+        <v>56.82097219057378</v>
       </c>
       <c r="C5" t="n">
-        <v>50.17333333333332</v>
+        <v>51.08190750797633</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>57.16774193548387</v>
+        <v>57.18189622421689</v>
       </c>
       <c r="C6" t="n">
-        <v>49.92903225806452</v>
+        <v>50.34879305663147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>58.14999999999999</v>
+        <v>58.16966051796676</v>
       </c>
       <c r="C7" t="n">
-        <v>51.66333333333333</v>
+        <v>51.86546411567902</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>57.44193548387098</v>
+        <v>57.63414958999181</v>
       </c>
       <c r="C8" t="n">
-        <v>50.8516129032258</v>
+        <v>50.98100038136712</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>57.6774193548387</v>
+        <v>57.6913691738308</v>
       </c>
       <c r="C9" t="n">
-        <v>51.23225806451614</v>
+        <v>51.34459228438453</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>58.48666666666667</v>
+        <v>58.49448000353949</v>
       </c>
       <c r="C10" t="n">
-        <v>51.37666666666666</v>
+        <v>51.6595834699845</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.04193548387097</v>
+        <v>56.91399535927239</v>
       </c>
       <c r="C11" t="n">
-        <v>37.71290322580645</v>
+        <v>49.60099902805239</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>57.55333333333333</v>
+        <v>57.63317775289267</v>
       </c>
       <c r="C12" t="n">
-        <v>50.64333333333334</v>
+        <v>50.869532474114</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>56.94516129032257</v>
+        <v>57.11693909571294</v>
       </c>
       <c r="C13" t="n">
-        <v>49.80967741935484</v>
+        <v>50.36392736119869</v>
       </c>
     </row>
   </sheetData>
